--- a/public/img/urbanscapes_exemple_sheet.xlsx
+++ b/public/img/urbanscapes_exemple_sheet.xlsx
@@ -66,7 +66,7 @@
     <t>Tagkronen_8.JPG, Tagkronen_12.JPG, Tagkronen_10.JPG</t>
   </si>
   <si>
-    <t>https://sangberg.com/en/project/tagkronen</t>
+    <t>https://link.com/, http://link2.com</t>
   </si>
   <si>
     <t>55.687733, 12.492996</t>
@@ -506,7 +506,7 @@
     <col min="14" max="14" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="16" max="16" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="8" width="30.290714285714284" customWidth="1" bestFit="1"/>
     <col min="18" max="18" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="19" max="19" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="20" max="20" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
